--- a/docs/droit_utilisateurs.xlsx
+++ b/docs/droit_utilisateurs.xlsx
@@ -1,84 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Utilisateur Anonyme</t>
-  </si>
-  <si>
-    <t>Utilisateur authentifié</t>
-  </si>
-  <si>
-    <t>Administrateur</t>
-  </si>
-  <si>
-    <t>S'inscrire</t>
-  </si>
-  <si>
-    <t>Se connecter</t>
-  </si>
-  <si>
-    <t>Se deconnecter</t>
-  </si>
-  <si>
-    <t>Voir une annonce</t>
-  </si>
-  <si>
-    <t>Poster une annonce</t>
-  </si>
-  <si>
-    <t>Editer une annonce</t>
-  </si>
-  <si>
-    <t>Supprimer une annonce</t>
-  </si>
-  <si>
-    <t>Recher une annonce</t>
-  </si>
-  <si>
-    <t>Rechercher par catégorie</t>
-  </si>
-  <si>
-    <t>Gérer les Utilisateurs</t>
-  </si>
-  <si>
-    <t>Gérer les annonces</t>
-  </si>
-  <si>
-    <t>Gérer les catégorie</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">Action </t>
+  </si>
+  <si>
+    <t>Anonyme</t>
+  </si>
+  <si>
+    <t>Inscrit</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Recettes : Afficher sous forme de liste</t>
+  </si>
+  <si>
+    <t>Recettes : Afficher le détail avec commentaires</t>
+  </si>
+  <si>
+    <t>Recettes : Modifier / Effacer ses recettes</t>
+  </si>
+  <si>
+    <t>Recettes : Modifier / Effacer toutes</t>
+  </si>
+  <si>
+    <t>Commentaires : Ecrire</t>
+  </si>
+  <si>
+    <t>Utilisateurs : Modifier</t>
+  </si>
+  <si>
+    <t>Utilisateurs : Créer</t>
+  </si>
+  <si>
+    <t>Commentaires : Effacer ses commentaires</t>
+  </si>
+  <si>
+    <t>Commentaires : Effacer tous</t>
+  </si>
+  <si>
+    <t>Utilisateurs : Supprimer</t>
+  </si>
+  <si>
+    <t>Utilisateurs : Modifier son mot de passe</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Recettes : Ajouter une recette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,18 +99,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -114,11 +119,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -127,9 +134,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -138,11 +149,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -151,135 +164,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -288,14 +302,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,14 +316,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,34 +340,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,14 +354,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +404,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -475,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,16 +508,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -638,227 +643,206 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="D21:E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickTop="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickTop="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/droit_utilisateurs.xlsx
+++ b/docs/droit_utilisateurs.xlsx
@@ -304,18 +304,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -325,21 +313,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +323,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +653,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,21 +667,21 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -695,131 +695,132 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
